--- a/multi_asset.xlsx
+++ b/multi_asset.xlsx
@@ -416,151 +416,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Total Coal Used (Metric Tons)</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Gen. Output [MW]</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Temp (Celsius)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Water In (LPH)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Carbon Output</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Power Output</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>MW Generated</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Op. Efficiency (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>240.39</v>
-      </c>
-      <c r="B2" t="n">
-        <v>191.4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>370.56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4630.96</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.52</v>
-      </c>
-      <c r="F2" t="n">
-        <v>191.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>134.86</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>89.1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>125.66</v>
-      </c>
-      <c r="C3" t="n">
-        <v>333.39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1338.71</v>
-      </c>
-      <c r="E3" t="n">
-        <v>25.23</v>
-      </c>
-      <c r="F3" t="n">
-        <v>125.66</v>
-      </c>
-      <c r="G3" t="n">
-        <v>143.78</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>89.7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>200.5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-50.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>400</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-50.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-50.5</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-10%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -612,28 +467,30 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-50.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-50.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-50.5</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-10%</t>
         </is>
       </c>
     </row>
@@ -642,7 +499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -700,69 +557,240 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>479.02</v>
+        <v>187.05</v>
       </c>
       <c r="B2" t="n">
-        <v>95.7</v>
+        <v>147.76</v>
       </c>
       <c r="C2" t="n">
-        <v>406.39</v>
+        <v>307.69</v>
       </c>
       <c r="D2" t="n">
-        <v>4692.22</v>
+        <v>3835.14</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>42.2</v>
       </c>
       <c r="F2" t="n">
-        <v>95.7</v>
+        <v>147.76</v>
       </c>
       <c r="G2" t="n">
-        <v>120.57</v>
+        <v>169.42</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>88.2%</t>
+          <t>94.6%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Total Coal Used (Metric Tons)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Gen. Output [MW]</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Temp (Celsius)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Water In (LPH)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Carbon Output</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Power Output</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MW Generated</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Op. Efficiency (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>293.67</v>
+      </c>
+      <c r="B2" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>303.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2403.29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>123.09</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>86.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>459.68</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>426.35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1795.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>190.13</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>88.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>447.51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>449.87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2114.78</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.42</v>
+      </c>
+      <c r="F4" t="n">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>143.63</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>91.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>1,234.50</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>150 MT</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>450,0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2,500.99</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>35.50</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>150 MT</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>150 MT</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>88.5%</t>
         </is>
@@ -779,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,83 +859,55 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>176.08</v>
+        <v>336.46</v>
       </c>
       <c r="B2" t="n">
-        <v>133.93</v>
+        <v>149.1</v>
       </c>
       <c r="C2" t="n">
-        <v>324.45</v>
+        <v>347.61</v>
       </c>
       <c r="D2" t="n">
-        <v>2772.21</v>
+        <v>1985.8</v>
       </c>
       <c r="E2" t="n">
-        <v>19.84</v>
+        <v>26.09</v>
       </c>
       <c r="F2" t="n">
-        <v>133.93</v>
+        <v>149.1</v>
       </c>
       <c r="G2" t="n">
-        <v>126.37</v>
+        <v>228.91</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>86.8%</t>
+          <t>89.5%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>225.48</v>
+        <v>105</v>
       </c>
       <c r="B3" t="n">
-        <v>209.62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>348.95</v>
+        <v>320</v>
       </c>
       <c r="D3" t="n">
-        <v>3092.36</v>
+        <v>4500</v>
       </c>
       <c r="E3" t="n">
-        <v>44.51</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>209.62</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>130.38</v>
+        <v>65</v>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>78.9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>105</v>
-      </c>
-      <c r="B4" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" t="n">
-        <v>320</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>60</v>
-      </c>
-      <c r="G4" t="n">
-        <v>65</v>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>92%</t>
         </is>
